--- a/Table/client/lua/exe/temp/V4专属界面.xlsx
+++ b/Table/client/lua/exe/temp/V4专属界面.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SLRPGA\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>VIP卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,43 +97,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>坐骑模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZJ_HuanShi_UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配套模型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配套模型2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mod_Award_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_Test_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青焱幻獅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청염사자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>坐骑名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐骑模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZJ_HuanShi_UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配套模型1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配套模型2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mod_Award_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title_Test_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青焱幻狮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +164,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -472,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,7 +493,7 @@
     <col min="1" max="16384" width="15.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,19 +504,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>210003</v>
       </c>
@@ -520,13 +530,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Table/client/lua/exe/temp/V4专属界面.xlsx
+++ b/Table/client/lua/exe/temp/V4专属界面.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SLRPGA\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>VIP卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>坐骑名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>坐骑模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,23 +125,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青焱幻獅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청염사자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐骑名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>青焱幻狮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,12 +160,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -482,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,7 +483,7 @@
     <col min="1" max="16384" width="15.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,19 +494,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>210003</v>
       </c>
@@ -530,16 +520,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
